--- a/poverty_rate_analysis.xlsx
+++ b/poverty_rate_analysis.xlsx
@@ -463,10 +463,10 @@
         <v>2930</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8904436860068259</v>
       </c>
     </row>
     <row r="3">
@@ -477,10 +477,10 @@
         <v>2643</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.8955732122587968</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         <v>2754</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2490</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.9041394335511983</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         <v>2834</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.9121383203952012</v>
       </c>
     </row>
     <row r="6">
@@ -519,10 +519,10 @@
         <v>2947</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2709</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.9192399049881235</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>3057</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.9319594373568858</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>3165</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2958</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.9345971563981043</v>
       </c>
     </row>
     <row r="9">
@@ -561,10 +561,10 @@
         <v>3252</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3063</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.9418819188191881</v>
       </c>
     </row>
     <row r="10">
@@ -575,10 +575,10 @@
         <v>3318</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3146</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.948161543098252</v>
       </c>
     </row>
     <row r="11">
@@ -589,10 +589,10 @@
         <v>3382</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3220</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.9520993494973389</v>
       </c>
     </row>
     <row r="12">
@@ -603,10 +603,10 @@
         <v>3416</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3272</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.9578454332552693</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         <v>3497</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3354</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.9591078066914498</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         <v>3589</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3454</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.962385065477849</v>
       </c>
     </row>
     <row r="15">
@@ -645,10 +645,10 @@
         <v>3617</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3476</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.9610174177495162</v>
       </c>
     </row>
     <row r="16">
@@ -659,10 +659,10 @@
         <v>3673</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3524</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.9594337054179145</v>
       </c>
     </row>
     <row r="17">
@@ -673,10 +673,10 @@
         <v>3715</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3566</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.9598923283983849</v>
       </c>
     </row>
     <row r="18">
@@ -687,10 +687,10 @@
         <v>3729</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3559</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.9544113703405739</v>
       </c>
     </row>
     <row r="19">
@@ -701,10 +701,10 @@
         <v>3753</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3572</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.9517719158006928</v>
       </c>
     </row>
     <row r="20">
@@ -715,10 +715,10 @@
         <v>3750</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3551</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.9469333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -729,10 +729,10 @@
         <v>3778</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3560</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.942297511911064</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>3809</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3566</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.9362037280126018</v>
       </c>
     </row>
     <row r="23">
@@ -757,10 +757,10 @@
         <v>3809</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.928065108952481</v>
       </c>
     </row>
     <row r="24">
@@ -771,10 +771,10 @@
         <v>3935</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3617</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.9191867852604828</v>
       </c>
     </row>
     <row r="25">
@@ -785,10 +785,10 @@
         <v>3957</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3619</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.9145817538539297</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         <v>4051</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3690</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.91088620093804</v>
       </c>
     </row>
     <row r="27">
@@ -813,10 +813,10 @@
         <v>4231</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3815</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.9016780902859844</v>
       </c>
     </row>
     <row r="28">
@@ -827,10 +827,10 @@
         <v>4624</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4153</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.8981401384083045</v>
       </c>
     </row>
     <row r="29">
@@ -841,10 +841,10 @@
         <v>4565</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.8928806133625411</v>
       </c>
     </row>
     <row r="30">
@@ -855,10 +855,10 @@
         <v>4547</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>4032</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.8867385089069716</v>
       </c>
     </row>
     <row r="31">
@@ -869,10 +869,10 @@
         <v>4592</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4057</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.883493031358885</v>
       </c>
     </row>
     <row r="32">
@@ -883,10 +883,10 @@
         <v>4740</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4101</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.8651898734177215</v>
       </c>
     </row>
     <row r="33">
@@ -897,10 +897,10 @@
         <v>4970</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4178</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.8406438631790745</v>
       </c>
     </row>
     <row r="34">
@@ -911,10 +911,10 @@
         <v>5159</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4242</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.8222523744911805</v>
       </c>
     </row>
     <row r="35">
@@ -925,10 +925,10 @@
         <v>5175</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4148</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.8015458937198068</v>
       </c>
     </row>
     <row r="36">
@@ -939,10 +939,10 @@
         <v>5295</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>4162</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.7860245514636449</v>
       </c>
     </row>
     <row r="37">
@@ -953,10 +953,10 @@
         <v>5446</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4217</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.7743297833272126</v>
       </c>
     </row>
     <row r="38">
@@ -967,10 +967,10 @@
         <v>5495</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4291</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.780891719745223</v>
       </c>
     </row>
     <row r="39">
@@ -981,10 +981,10 @@
         <v>5450</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>4181</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.7671559633027523</v>
       </c>
     </row>
     <row r="40">
@@ -995,10 +995,10 @@
         <v>5318</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4055</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.7625047010154193</v>
       </c>
     </row>
     <row r="41">
@@ -1009,10 +1009,10 @@
         <v>5354</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3990</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.7452372058274187</v>
       </c>
     </row>
   </sheetData>
